--- a/Excel/Calendrier.xlsx
+++ b/Excel/Calendrier.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Calendrier" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Championnat de gym</t>
+  </si>
+  <si>
+    <t>VUC Vacances</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,9 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -650,7 +655,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
